--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1365" windowWidth="27645" windowHeight="16005"/>
+    <workbookView xWindow="0" yWindow="1815" windowWidth="27645" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>product</t>
   </si>
@@ -166,6 +166,24 @@
   </si>
   <si>
     <t>display name</t>
+  </si>
+  <si>
+    <t>IEAGHG_coke_oven</t>
+  </si>
+  <si>
+    <t>coke oven</t>
+  </si>
+  <si>
+    <t>coke</t>
+  </si>
+  <si>
+    <t>data/steel/SteelUnits_Variables.xlsx</t>
+  </si>
+  <si>
+    <t>data/steel/SteelUnits_Relationships.xlsx</t>
+  </si>
+  <si>
+    <t>Coke Oven</t>
   </si>
 </sst>
 </file>
@@ -1007,11 +1025,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1247,6 +1263,32 @@
         <v>29</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>product</t>
   </si>
@@ -184,6 +184,33 @@
   </si>
   <si>
     <t>Coke Oven</t>
+  </si>
+  <si>
+    <t>IEAGHG_sinter_plant</t>
+  </si>
+  <si>
+    <t>sinter plant</t>
+  </si>
+  <si>
+    <t>sinter</t>
+  </si>
+  <si>
+    <t>Sinter Plant</t>
+  </si>
+  <si>
+    <t>blast furnace</t>
+  </si>
+  <si>
+    <t>hot metal</t>
+  </si>
+  <si>
+    <t>outflow</t>
+  </si>
+  <si>
+    <t>Blast Furnace</t>
+  </si>
+  <si>
+    <t>IEAGHG_blast_furnace</t>
   </si>
 </sst>
 </file>
@@ -1025,9 +1052,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1289,6 +1318,58 @@
         <v>54</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83C0CA8-EC0A-2349-A11E-F3CD1D3AF8EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1815" windowWidth="27645" windowHeight="16005"/>
+    <workbookView xWindow="260" yWindow="1960" windowWidth="27640" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>product</t>
   </si>
@@ -211,12 +212,48 @@
   </si>
   <si>
     <t>IEAGHG_blast_furnace</t>
+  </si>
+  <si>
+    <t>IEAGHG_BOF</t>
+  </si>
+  <si>
+    <t>basic oxygen furnace</t>
+  </si>
+  <si>
+    <t>ladle metallurgy</t>
+  </si>
+  <si>
+    <t>IEAGHG_ladle</t>
+  </si>
+  <si>
+    <t>IEAGHG_forming</t>
+  </si>
+  <si>
+    <t>rolling &amp; casting</t>
+  </si>
+  <si>
+    <t>liquid steel</t>
+  </si>
+  <si>
+    <t>hot rolled coil</t>
+  </si>
+  <si>
+    <t>BOF Steelmaking</t>
+  </si>
+  <si>
+    <t>Ladle Metallurgy</t>
+  </si>
+  <si>
+    <t>Forming</t>
+  </si>
+  <si>
+    <t>raw liquid steel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1051,16 +1088,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1089,7 +1126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1118,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1147,7 +1184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1176,7 +1213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1205,7 +1242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1234,7 +1271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1263,7 +1300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1292,7 +1329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -1318,7 +1355,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1344,7 +1381,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -1368,6 +1405,84 @@
       </c>
       <c r="H11" s="1" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83C0CA8-EC0A-2349-A11E-F3CD1D3AF8EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E266A2-14BE-404B-80C3-3DFE86A4C3FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="1960" windowWidth="27640" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="1520" windowWidth="27640" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
   <si>
     <t>product</t>
   </si>
@@ -169,9 +169,6 @@
     <t>display name</t>
   </si>
   <si>
-    <t>IEAGHG_coke_oven</t>
-  </si>
-  <si>
     <t>coke oven</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>Coke Oven</t>
   </si>
   <si>
-    <t>IEAGHG_sinter_plant</t>
-  </si>
-  <si>
     <t>sinter plant</t>
   </si>
   <si>
@@ -211,24 +205,12 @@
     <t>Blast Furnace</t>
   </si>
   <si>
-    <t>IEAGHG_blast_furnace</t>
-  </si>
-  <si>
-    <t>IEAGHG_BOF</t>
-  </si>
-  <si>
     <t>basic oxygen furnace</t>
   </si>
   <si>
     <t>ladle metallurgy</t>
   </si>
   <si>
-    <t>IEAGHG_ladle</t>
-  </si>
-  <si>
-    <t>IEAGHG_forming</t>
-  </si>
-  <si>
     <t>rolling &amp; casting</t>
   </si>
   <si>
@@ -248,6 +230,78 @@
   </si>
   <si>
     <t>raw liquid steel</t>
+  </si>
+  <si>
+    <t>aux_lime kiln</t>
+  </si>
+  <si>
+    <t>Lime Kiln</t>
+  </si>
+  <si>
+    <t>Air Separation</t>
+  </si>
+  <si>
+    <t>CaO</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>data/shared/AuxUnits_Relationships.xlsx</t>
+  </si>
+  <si>
+    <t>data/shared/AuxUnits_Variables.xlsx</t>
+  </si>
+  <si>
+    <t>aux_air separation</t>
+  </si>
+  <si>
+    <t>IEAGHGsteel_coke_oven</t>
+  </si>
+  <si>
+    <t>IEAGHGsteel_sinter_plant</t>
+  </si>
+  <si>
+    <t>IEAGHGsteel_blast_furnace</t>
+  </si>
+  <si>
+    <t>IEAGHGsteel_BOF</t>
+  </si>
+  <si>
+    <t>IEAGHGsteel_ladle</t>
+  </si>
+  <si>
+    <t>IEAGHGsteel_forming</t>
+  </si>
+  <si>
+    <t>electricity_1step</t>
+  </si>
+  <si>
+    <t>Power Plant</t>
+  </si>
+  <si>
+    <t>data/shared/EnergyUnits_Variables.xlsx</t>
+  </si>
+  <si>
+    <t>one-step power</t>
+  </si>
+  <si>
+    <t>data/shared/EnergyUnits_Relationships.xlsx</t>
+  </si>
+  <si>
+    <t>heat_collector</t>
+  </si>
+  <si>
+    <t>heat recovery</t>
+  </si>
+  <si>
+    <t>Heat Recovery</t>
+  </si>
+  <si>
+    <t>recovered heat</t>
+  </si>
+  <si>
+    <t>inflow</t>
   </si>
 </sst>
 </file>
@@ -1089,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1331,158 +1385,262 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" t="s">
-        <v>74</v>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E266A2-14BE-404B-80C3-3DFE86A4C3FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="1520" windowWidth="27640" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="1515" windowWidth="27645" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="120">
   <si>
     <t>product</t>
   </si>
@@ -175,12 +174,6 @@
     <t>coke</t>
   </si>
   <si>
-    <t>data/steel/SteelUnits_Variables.xlsx</t>
-  </si>
-  <si>
-    <t>data/steel/SteelUnits_Relationships.xlsx</t>
-  </si>
-  <si>
     <t>Coke Oven</t>
   </si>
   <si>
@@ -247,12 +240,6 @@
     <t>O2</t>
   </si>
   <si>
-    <t>data/shared/AuxUnits_Relationships.xlsx</t>
-  </si>
-  <si>
-    <t>data/shared/AuxUnits_Variables.xlsx</t>
-  </si>
-  <si>
     <t>aux_air separation</t>
   </si>
   <si>
@@ -274,21 +261,9 @@
     <t>IEAGHGsteel_forming</t>
   </si>
   <si>
-    <t>electricity_1step</t>
-  </si>
-  <si>
     <t>Power Plant</t>
   </si>
   <si>
-    <t>data/shared/EnergyUnits_Variables.xlsx</t>
-  </si>
-  <si>
-    <t>one-step power</t>
-  </si>
-  <si>
-    <t>data/shared/EnergyUnits_Relationships.xlsx</t>
-  </si>
-  <si>
     <t>heat_collector</t>
   </si>
   <si>
@@ -302,12 +277,114 @@
   </si>
   <si>
     <t>inflow</t>
+  </si>
+  <si>
+    <t>data/steel/steel_IEAGHG_calcs.xlsx</t>
+  </si>
+  <si>
+    <t>data/steel/steel_IEAGHG_var.xlsx</t>
+  </si>
+  <si>
+    <t>birat_steel_plant</t>
+  </si>
+  <si>
+    <t>data/steel/steel_WholeMill_var.xlsx</t>
+  </si>
+  <si>
+    <t>data/steel/steel_WholeMill_calcs.xlsx</t>
+  </si>
+  <si>
+    <t>Birat BF</t>
+  </si>
+  <si>
+    <t>bb_steel_bf</t>
+  </si>
+  <si>
+    <t>bb_steel_eaf</t>
+  </si>
+  <si>
+    <t>bb_steel_bf-eaf</t>
+  </si>
+  <si>
+    <t>Steel Mill (BF)</t>
+  </si>
+  <si>
+    <t>Steel Production (BF + EAF)</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>BF bb</t>
+  </si>
+  <si>
+    <t>EAF bb</t>
+  </si>
+  <si>
+    <t>BF EAF bb</t>
+  </si>
+  <si>
+    <t>Steel Mill (EAF)</t>
+  </si>
+  <si>
+    <t>data/shared/aux_calc.xlsx</t>
+  </si>
+  <si>
+    <t>data/shared/aux_var.xlsx</t>
+  </si>
+  <si>
+    <t>data/shared/energy_var.xlsx</t>
+  </si>
+  <si>
+    <t>data/shared/energy_calc.xlsx</t>
+  </si>
+  <si>
+    <t>bb_electricity</t>
+  </si>
+  <si>
+    <t>bb_heat</t>
+  </si>
+  <si>
+    <t>Heat Plant</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>bb electricity</t>
+  </si>
+  <si>
+    <t>bb heat</t>
+  </si>
+  <si>
+    <t>CO2_compression</t>
+  </si>
+  <si>
+    <t>CO2_capture</t>
+  </si>
+  <si>
+    <t>CO2_capture-compression</t>
+  </si>
+  <si>
+    <t>CO2 Capture &amp; Compression</t>
+  </si>
+  <si>
+    <t>captured CO2</t>
+  </si>
+  <si>
+    <t>data/shared/CCS_var.xlsx</t>
+  </si>
+  <si>
+    <t>CO2 Cap-Compress</t>
+  </si>
+  <si>
+    <t>data/shared/CCS_calc.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1142,16 +1219,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1180,7 +1261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1209,7 +1290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1238,7 +1319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1267,7 +1348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1296,7 +1377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1325,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1354,7 +1435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1383,9 +1464,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>49</v>
@@ -1397,250 +1478,458 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" t="s">
-        <v>91</v>
+      <c r="B22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="138">
   <si>
     <t>product</t>
   </si>
@@ -369,9 +369,6 @@
     <t>CO2 Capture &amp; Compression</t>
   </si>
   <si>
-    <t>captured CO2</t>
-  </si>
-  <si>
     <t>data/shared/CCS_var.xlsx</t>
   </si>
   <si>
@@ -379,6 +376,63 @@
   </si>
   <si>
     <t>data/shared/CCS_calc.xlsx</t>
+  </si>
+  <si>
+    <t>bb_fuel_upstream</t>
+  </si>
+  <si>
+    <t>Fuel Upstream</t>
+  </si>
+  <si>
+    <t>Biofuel Upstream</t>
+  </si>
+  <si>
+    <t>biofuel</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>bb fuel upstream</t>
+  </si>
+  <si>
+    <t>meta-category</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>CCS</t>
+  </si>
+  <si>
+    <t>mineral</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>bb_CO2_storage</t>
+  </si>
+  <si>
+    <t>CO2 storage</t>
+  </si>
+  <si>
+    <t>bb_biofuel_upstream</t>
+  </si>
+  <si>
+    <t>bb biofuel upstream</t>
+  </si>
+  <si>
+    <t>bb CO2 storage</t>
+  </si>
+  <si>
+    <t>CO2__captured</t>
+  </si>
+  <si>
+    <t>CO2__stored</t>
   </si>
 </sst>
 </file>
@@ -1220,716 +1274,882 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="H24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="H25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>118</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1769FD-3280-624E-8BF7-070B6432F0D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="1515" windowWidth="27645" windowHeight="14460"/>
+    <workbookView xWindow="1160" yWindow="1020" windowWidth="27640" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="141">
   <si>
     <t>product</t>
   </si>
@@ -433,12 +434,21 @@
   </si>
   <si>
     <t>CO2__stored</t>
+  </si>
+  <si>
+    <t>heat_flare</t>
+  </si>
+  <si>
+    <t>heat flare</t>
+  </si>
+  <si>
+    <t>Heat Flare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1273,21 +1283,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1319,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1351,7 +1361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1383,7 +1393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1415,7 +1425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1447,7 +1457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1479,7 +1489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1511,7 +1521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1543,7 +1553,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
@@ -1572,7 +1582,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
@@ -1601,7 +1611,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
@@ -1630,7 +1640,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -1659,7 +1669,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
@@ -1688,7 +1698,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
@@ -1717,7 +1727,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1746,7 +1756,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
@@ -1775,7 +1785,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>106</v>
       </c>
@@ -1804,7 +1814,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -1833,7 +1843,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
@@ -1862,38 +1872,38 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="B21" t="s">
         <v>97</v>
@@ -1902,7 +1912,7 @@
         <v>95</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>57</v>
@@ -1911,24 +1921,24 @@
         <v>89</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>90</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
         <v>97</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>97</v>
@@ -1940,24 +1950,24 @@
         <v>89</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>90</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
         <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>97</v>
@@ -1969,56 +1979,56 @@
         <v>89</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>90</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="H24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="B25" t="s">
         <v>128</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>85</v>
@@ -2027,27 +2037,27 @@
         <v>116</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>118</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
         <v>128</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>85</v>
@@ -2056,56 +2066,56 @@
         <v>116</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>118</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="H27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="B28" t="s">
         <v>127</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>57</v>
@@ -2114,41 +2124,70 @@
         <v>104</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>135</v>
       </c>
     </row>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1769FD-3280-624E-8BF7-070B6432F0D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DE3E1F-F231-E540-95DD-A4CED708E10E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1020" windowWidth="27640" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17700" yWindow="460" windowWidth="11100" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="165">
   <si>
     <t>product</t>
   </si>
@@ -46,9 +46,6 @@
     <t>output</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>blender</t>
   </si>
   <si>
@@ -443,6 +440,81 @@
   </si>
   <si>
     <t>Heat Flare</t>
+  </si>
+  <si>
+    <t>simple_coke</t>
+  </si>
+  <si>
+    <t>data/steel/steel_simplified_var.xlsx</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>data/steel/steel_simplified_calcs.xlsx</t>
+  </si>
+  <si>
+    <t>simple_lime</t>
+  </si>
+  <si>
+    <t>simple_pellets</t>
+  </si>
+  <si>
+    <t>simple_sinter</t>
+  </si>
+  <si>
+    <t>simple_BF</t>
+  </si>
+  <si>
+    <t>simple_BOF</t>
+  </si>
+  <si>
+    <t>simple_oxygen</t>
+  </si>
+  <si>
+    <t>simple_power</t>
+  </si>
+  <si>
+    <t>simple_fuel</t>
+  </si>
+  <si>
+    <t>Basic Oxygen Furnace</t>
+  </si>
+  <si>
+    <t>Electricty Generation</t>
+  </si>
+  <si>
+    <t>pellets</t>
+  </si>
+  <si>
+    <t>crude steel</t>
+  </si>
+  <si>
+    <t>Lime</t>
+  </si>
+  <si>
+    <t>Pellets</t>
+  </si>
+  <si>
+    <t>Sinter</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Pellet Plant</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,13 +1371,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1317,13 +1389,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -1331,10 +1403,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1346,849 +1418,1098 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="H22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>135</v>
+      <c r="D35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DE3E1F-F231-E540-95DD-A4CED708E10E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="460" windowWidth="11100" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17700" yWindow="465" windowWidth="11100" windowHeight="17265"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="172">
   <si>
     <t>product</t>
   </si>
@@ -515,12 +514,33 @@
   </si>
   <si>
     <t>Pellet Plant</t>
+  </si>
+  <si>
+    <t>simple_CO2capture</t>
+  </si>
+  <si>
+    <t>simple_CO2storage</t>
+  </si>
+  <si>
+    <t>CO2 Transport &amp; Storage</t>
+  </si>
+  <si>
+    <t>CO2 Storage</t>
+  </si>
+  <si>
+    <t>simple_heat</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Steam Boiler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1355,21 +1375,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1401,7 +1421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1431,7 +1451,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1461,7 +1481,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1491,7 +1511,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1521,7 +1541,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1551,7 +1571,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1581,7 +1601,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1613,7 +1633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -1642,7 +1662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -1671,7 +1691,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -1700,7 +1720,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -1729,7 +1749,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1758,7 +1778,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1787,7 +1807,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1816,7 +1836,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -1845,7 +1865,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
@@ -1874,7 +1894,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
@@ -1903,7 +1923,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -1932,7 +1952,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -1961,7 +1981,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -1990,7 +2010,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -2019,7 +2039,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -2048,7 +2068,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -2077,7 +2097,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -2106,7 +2126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -2135,7 +2155,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -2164,7 +2184,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
@@ -2193,7 +2213,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -2222,7 +2242,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>130</v>
       </c>
@@ -2251,7 +2271,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>140</v>
       </c>
@@ -2280,7 +2300,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
@@ -2309,7 +2329,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2338,7 +2358,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
@@ -2367,7 +2387,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -2396,7 +2416,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -2425,7 +2445,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
@@ -2454,7 +2474,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2483,7 +2503,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -2510,6 +2530,93 @@
       </c>
       <c r="I39" s="1" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="175">
   <si>
     <t>product</t>
   </si>
@@ -535,6 +535,15 @@
   </si>
   <si>
     <t>Steam Boiler</t>
+  </si>
+  <si>
+    <t>simple_EAF</t>
+  </si>
+  <si>
+    <t>Electric Arc Furnace</t>
+  </si>
+  <si>
+    <t>EAF</t>
   </si>
 </sst>
 </file>
@@ -1376,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2619,6 +2628,35 @@
         <v>168</v>
       </c>
     </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1387,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2639,7 +2639,7 @@
         <v>173</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>56</v>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9C0C91-86A7-BC48-95D7-A54D92EF5F47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="465" windowWidth="11100" windowHeight="17265"/>
+    <workbookView xWindow="7880" yWindow="460" windowWidth="20920" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="184">
   <si>
     <t>product</t>
   </si>
@@ -544,12 +545,39 @@
   </si>
   <si>
     <t>EAF</t>
+  </si>
+  <si>
+    <t>simple_DRI</t>
+  </si>
+  <si>
+    <t>simple_syngas</t>
+  </si>
+  <si>
+    <t>simple_casting</t>
+  </si>
+  <si>
+    <t>DRI Furnace</t>
+  </si>
+  <si>
+    <t>Syngas Production</t>
+  </si>
+  <si>
+    <t>Finishing</t>
+  </si>
+  <si>
+    <t>syngas</t>
+  </si>
+  <si>
+    <t>DRI</t>
+  </si>
+  <si>
+    <t>Finish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1384,21 +1412,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1430,7 +1461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1460,7 +1491,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1490,7 +1521,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1520,7 +1551,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1550,7 +1581,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1580,7 +1611,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1610,7 +1641,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1642,7 +1673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -1671,7 +1702,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -1700,7 +1731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -1729,7 +1760,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -1758,7 +1789,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1787,7 +1818,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1816,7 +1847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1845,7 +1876,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -1874,7 +1905,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
@@ -1903,7 +1934,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
@@ -1932,7 +1963,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -1961,7 +1992,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -1990,7 +2021,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -2019,7 +2050,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -2048,7 +2079,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -2077,7 +2108,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -2106,7 +2137,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -2135,7 +2166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -2164,7 +2195,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -2193,7 +2224,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
@@ -2222,7 +2253,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -2251,7 +2282,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>130</v>
       </c>
@@ -2280,7 +2311,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>140</v>
       </c>
@@ -2309,7 +2340,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
@@ -2338,7 +2369,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2367,7 +2398,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
@@ -2396,7 +2427,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -2425,7 +2456,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -2454,7 +2485,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
@@ -2483,7 +2514,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2512,7 +2543,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -2541,7 +2572,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -2570,7 +2601,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>165</v>
       </c>
@@ -2599,7 +2630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>166</v>
       </c>
@@ -2628,7 +2659,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>172</v>
       </c>
@@ -2655,6 +2686,93 @@
       </c>
       <c r="I43" s="1" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9C0C91-86A7-BC48-95D7-A54D92EF5F47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B279D5-6F95-D84D-B4B2-255A346527BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="460" windowWidth="20920" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="187">
   <si>
     <t>product</t>
   </si>
@@ -572,6 +572,15 @@
   </si>
   <si>
     <t>Finish</t>
+  </si>
+  <si>
+    <t>reduced iron</t>
+  </si>
+  <si>
+    <t>stored CO2</t>
+  </si>
+  <si>
+    <t>Syngas</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1428,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I49" sqref="I49"/>
+      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2641,7 +2650,7 @@
         <v>167</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>56</v>
@@ -2699,7 +2708,7 @@
         <v>178</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>56</v>
@@ -2737,13 +2746,13 @@
         <v>141</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>143</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B279D5-6F95-D84D-B4B2-255A346527BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="465" windowWidth="25200" windowHeight="17265"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="190">
   <si>
     <t>product</t>
   </si>
@@ -581,12 +580,21 @@
   </si>
   <si>
     <t>Syngas</t>
+  </si>
+  <si>
+    <t>simple_charcoal</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>charcoal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1421,24 +1429,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1470,7 +1478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1500,7 +1508,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1530,7 +1538,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1560,7 +1568,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1590,7 +1598,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1620,7 +1628,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1650,7 +1658,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1682,7 +1690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -1711,7 +1719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -1740,7 +1748,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -1769,7 +1777,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -1798,7 +1806,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1827,7 +1835,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1856,7 +1864,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1885,7 +1893,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -1914,7 +1922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
@@ -1943,7 +1951,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
@@ -1972,7 +1980,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -2001,7 +2009,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -2030,7 +2038,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -2059,7 +2067,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -2088,7 +2096,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -2117,7 +2125,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -2146,7 +2154,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -2175,7 +2183,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -2204,7 +2212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -2233,7 +2241,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
@@ -2262,7 +2270,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -2291,7 +2299,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>130</v>
       </c>
@@ -2320,7 +2328,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>140</v>
       </c>
@@ -2349,7 +2357,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
@@ -2378,7 +2386,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2407,7 +2415,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
@@ -2436,7 +2444,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -2465,7 +2473,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -2494,7 +2502,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
@@ -2523,7 +2531,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2552,7 +2560,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -2581,7 +2589,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -2610,7 +2618,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>165</v>
       </c>
@@ -2639,7 +2647,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>166</v>
       </c>
@@ -2668,7 +2676,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>172</v>
       </c>
@@ -2697,7 +2705,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>175</v>
       </c>
@@ -2726,7 +2734,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>176</v>
       </c>
@@ -2755,7 +2763,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>177</v>
       </c>
@@ -2782,6 +2790,35 @@
       </c>
       <c r="I46" s="1" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E090111-09AC-274C-8815-746A3078DC8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="465" windowWidth="25200" windowHeight="17265"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="195">
   <si>
     <t>product</t>
   </si>
@@ -589,12 +590,27 @@
   </si>
   <si>
     <t>charcoal</t>
+  </si>
+  <si>
+    <t>duplicae_CO2capture</t>
+  </si>
+  <si>
+    <t>CO2 Cap Aux</t>
+  </si>
+  <si>
+    <t>simple_compression</t>
+  </si>
+  <si>
+    <t>compressed CO2</t>
+  </si>
+  <si>
+    <t>CO2 Compress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1429,24 +1445,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1478,7 +1494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1508,7 +1524,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1538,7 +1554,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1568,7 +1584,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1598,7 +1614,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1628,7 +1644,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1658,7 +1674,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1690,7 +1706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -1719,7 +1735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -1748,7 +1764,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -1777,7 +1793,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -1806,7 +1822,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1835,7 +1851,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1864,7 +1880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1893,7 +1909,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -1922,7 +1938,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
@@ -1951,7 +1967,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
@@ -1980,7 +1996,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -2009,7 +2025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -2038,7 +2054,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -2067,7 +2083,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -2096,7 +2112,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -2125,7 +2141,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -2154,7 +2170,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -2183,7 +2199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -2212,7 +2228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -2241,7 +2257,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
@@ -2270,7 +2286,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -2299,7 +2315,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>130</v>
       </c>
@@ -2328,7 +2344,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>140</v>
       </c>
@@ -2357,7 +2373,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
@@ -2386,7 +2402,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2415,7 +2431,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
@@ -2444,7 +2460,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -2473,7 +2489,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -2502,7 +2518,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
@@ -2531,7 +2547,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2560,7 +2576,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -2589,7 +2605,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -2618,7 +2634,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>165</v>
       </c>
@@ -2647,47 +2663,47 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
         <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>143</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>56</v>
@@ -2696,27 +2712,27 @@
         <v>141</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>143</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>56</v>
@@ -2725,27 +2741,27 @@
         <v>141</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>143</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>56</v>
@@ -2754,27 +2770,27 @@
         <v>141</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>143</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B46" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>56</v>
@@ -2783,27 +2799,27 @@
         <v>141</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>143</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B47" t="s">
         <v>126</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>56</v>
@@ -2812,12 +2828,70 @@
         <v>141</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>143</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>188</v>
       </c>
     </row>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E090111-09AC-274C-8815-746A3078DC8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979332E5-0F14-384B-BB3F-9073DC47AA2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6640" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -592,9 +600,6 @@
     <t>charcoal</t>
   </si>
   <si>
-    <t>duplicae_CO2capture</t>
-  </si>
-  <si>
     <t>CO2 Cap Aux</t>
   </si>
   <si>
@@ -605,6 +610,9 @@
   </si>
   <si>
     <t>CO2 Compress</t>
+  </si>
+  <si>
+    <t>duplicate_CO2capture</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1460,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2665,7 +2673,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s">
         <v>127</v>
@@ -2683,18 +2691,18 @@
         <v>141</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>143</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s">
         <v>127</v>
@@ -2703,7 +2711,7 @@
         <v>37</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>56</v>
@@ -2712,13 +2720,13 @@
         <v>141</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>143</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979332E5-0F14-384B-BB3F-9073DC47AA2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6645" yWindow="465" windowWidth="25200" windowHeight="17265"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="196">
   <si>
     <t>product</t>
   </si>
@@ -613,12 +612,15 @@
   </si>
   <si>
     <t>duplicate_CO2capture</t>
+  </si>
+  <si>
+    <t>CO2 Capture Aux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1453,24 +1455,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1502,7 +1504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1532,7 +1534,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1562,7 +1564,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1592,7 +1594,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1622,7 +1624,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1652,7 +1654,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1682,7 +1684,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1714,7 +1716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -1743,7 +1745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -1772,7 +1774,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -1801,7 +1803,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -1830,7 +1832,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1859,7 +1861,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1888,7 +1890,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1917,7 +1919,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -1946,7 +1948,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
@@ -1975,7 +1977,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
@@ -2004,7 +2006,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -2033,7 +2035,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -2062,7 +2064,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -2091,7 +2093,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -2120,7 +2122,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -2149,7 +2151,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -2178,7 +2180,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -2207,7 +2209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -2236,7 +2238,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -2323,7 +2325,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>130</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>140</v>
       </c>
@@ -2381,7 +2383,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
@@ -2410,7 +2412,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2439,7 +2441,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
@@ -2468,7 +2470,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -2497,7 +2499,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
@@ -2555,7 +2557,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2584,7 +2586,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -2613,7 +2615,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -2642,7 +2644,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>165</v>
       </c>
@@ -2650,7 +2652,7 @@
         <v>127</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>12</v>
@@ -2671,7 +2673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>194</v>
       </c>
@@ -2679,7 +2681,7 @@
         <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>12</v>
@@ -2700,7 +2702,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>191</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>166</v>
       </c>
@@ -2758,7 +2760,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>172</v>
       </c>
@@ -2787,7 +2789,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
@@ -2816,7 +2818,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>176</v>
       </c>
@@ -2845,7 +2847,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>177</v>
       </c>
@@ -2874,7 +2876,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>187</v>
       </c>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C22D44-0528-084E-93E1-61578E86B54E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="465" windowWidth="25200" windowHeight="17265"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
+    <sheet name="old" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="222">
   <si>
     <t>product</t>
   </si>
@@ -615,13 +617,91 @@
   </si>
   <si>
     <t>CO2 Capture Aux</t>
+  </si>
+  <si>
+    <t>cement_preheater</t>
+  </si>
+  <si>
+    <t>cement_calciner</t>
+  </si>
+  <si>
+    <t>cement_meal</t>
+  </si>
+  <si>
+    <t>cement_kiln</t>
+  </si>
+  <si>
+    <t>cement_cooler</t>
+  </si>
+  <si>
+    <t>cement_mixer</t>
+  </si>
+  <si>
+    <t>Meal Grinder</t>
+  </si>
+  <si>
+    <t>Meal Preheater</t>
+  </si>
+  <si>
+    <t>Calciner</t>
+  </si>
+  <si>
+    <t>Kiln</t>
+  </si>
+  <si>
+    <t>Clinker Cooler</t>
+  </si>
+  <si>
+    <t>Clinker Kiln</t>
+  </si>
+  <si>
+    <t>Cement Mixer</t>
+  </si>
+  <si>
+    <t>ground meal</t>
+  </si>
+  <si>
+    <t>heated meal</t>
+  </si>
+  <si>
+    <t>calcined meal</t>
+  </si>
+  <si>
+    <t>hot clinker</t>
+  </si>
+  <si>
+    <t>cool clinker</t>
+  </si>
+  <si>
+    <t>data/cement/cement_var.xlsx</t>
+  </si>
+  <si>
+    <t>data/cement/cement_calcs.xlsx</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Preheater</t>
+  </si>
+  <si>
+    <t>Cooler</t>
+  </si>
+  <si>
+    <t>Mixer</t>
+  </si>
+  <si>
+    <t>data/shared/shared_var.xlsx</t>
+  </si>
+  <si>
+    <t>data/shared/shared_calcs.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -752,6 +832,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1098,9 +1185,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1455,24 +1543,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1504,7 +1592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1534,7 +1622,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1564,7 +1652,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1594,7 +1682,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1624,7 +1712,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1654,7 +1742,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1684,7 +1772,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1716,7 +1804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -1745,7 +1833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -1774,7 +1862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -1803,7 +1891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -1832,7 +1920,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1861,7 +1949,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1890,7 +1978,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1919,7 +2007,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -1948,7 +2036,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
@@ -1977,7 +2065,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
@@ -2006,7 +2094,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -2035,7 +2123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -2064,7 +2152,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -2093,7 +2181,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -2122,7 +2210,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -2151,7 +2239,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -2180,7 +2268,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -2209,7 +2297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -2238,7 +2326,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -2267,7 +2355,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
@@ -2296,7 +2384,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -2325,7 +2413,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>130</v>
       </c>
@@ -2354,7 +2442,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>140</v>
       </c>
@@ -2383,7 +2471,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
@@ -2400,19 +2488,19 @@
         <v>56</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>156</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2441,7 +2529,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
@@ -2470,7 +2558,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -2499,7 +2587,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -2528,7 +2616,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
@@ -2545,19 +2633,19 @@
         <v>56</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>161</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2574,19 +2662,19 @@
         <v>56</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>162</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -2615,7 +2703,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -2632,19 +2720,19 @@
         <v>56</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>165</v>
       </c>
@@ -2661,19 +2749,19 @@
         <v>84</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>194</v>
       </c>
@@ -2690,19 +2778,19 @@
         <v>84</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>190</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>191</v>
       </c>
@@ -2719,19 +2807,19 @@
         <v>56</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>193</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>166</v>
       </c>
@@ -2748,19 +2836,19 @@
         <v>56</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>172</v>
       </c>
@@ -2789,7 +2877,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
@@ -2818,7 +2906,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>176</v>
       </c>
@@ -2835,19 +2923,19 @@
         <v>56</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>186</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>177</v>
       </c>
@@ -2876,7 +2964,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>187</v>
       </c>
@@ -2893,19 +2981,759 @@
         <v>56</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>188</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" t="s">
+        <v>213</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5162B147-5DB6-C042-B721-9C24CCD7FAD0}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C22D44-0528-084E-93E1-61578E86B54E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE2A1D-5ADF-0D45-84DF-9CBDF4E4198C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,9 +661,6 @@
     <t>ground meal</t>
   </si>
   <si>
-    <t>heated meal</t>
-  </si>
-  <si>
     <t>calcined meal</t>
   </si>
   <si>
@@ -695,6 +692,9 @@
   </si>
   <si>
     <t>data/shared/shared_calcs.xlsx</t>
+  </si>
+  <si>
+    <t>hot meal</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1550,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
+      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2488,13 +2488,13 @@
         <v>56</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>156</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>156</v>
@@ -2633,13 +2633,13 @@
         <v>56</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>161</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>161</v>
@@ -2662,13 +2662,13 @@
         <v>56</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>162</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>162</v>
@@ -2720,13 +2720,13 @@
         <v>56</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>170</v>
@@ -2749,13 +2749,13 @@
         <v>84</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>36</v>
@@ -2778,13 +2778,13 @@
         <v>84</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>190</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>190</v>
@@ -2807,13 +2807,13 @@
         <v>56</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>193</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>193</v>
@@ -2836,13 +2836,13 @@
         <v>56</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>168</v>
@@ -2923,13 +2923,13 @@
         <v>56</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>186</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>186</v>
@@ -2981,13 +2981,13 @@
         <v>56</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>188</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>188</v>
@@ -3010,16 +3010,16 @@
         <v>56</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -3033,22 +3033,22 @@
         <v>203</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="I51" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -3062,19 +3062,19 @@
         <v>204</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>204</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>204</v>
@@ -3091,19 +3091,19 @@
         <v>207</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>205</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>205</v>
@@ -3120,22 +3120,22 @@
         <v>206</v>
       </c>
       <c r="D54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="I54" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -3155,16 +3155,16 @@
         <v>56</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="I55" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE2A1D-5ADF-0D45-84DF-9CBDF4E4198C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="465" windowWidth="25200" windowHeight="17265"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
-    <sheet name="old" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="225">
   <si>
     <t>product</t>
   </si>
@@ -695,12 +693,21 @@
   </si>
   <si>
     <t>hot meal</t>
+  </si>
+  <si>
+    <t>cement_kiln-system</t>
+  </si>
+  <si>
+    <t>Cement Calciner and Kiln</t>
+  </si>
+  <si>
+    <t>Kiln System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1543,24 +1550,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,7 +1599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1622,7 +1629,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1652,7 +1659,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1682,7 +1689,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1712,7 +1719,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1742,7 +1749,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1772,7 +1779,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1804,7 +1811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -1833,7 +1840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -1862,7 +1869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -1891,7 +1898,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -1920,7 +1927,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1949,7 +1956,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1978,7 +1985,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -2007,7 +2014,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -2036,7 +2043,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
@@ -2065,7 +2072,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
@@ -2094,7 +2101,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -2123,7 +2130,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -2152,7 +2159,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -2181,7 +2188,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -2210,7 +2217,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -2239,7 +2246,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -2268,7 +2275,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -2297,7 +2304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -2326,7 +2333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -2355,7 +2362,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
@@ -2384,7 +2391,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -2413,7 +2420,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>130</v>
       </c>
@@ -2442,7 +2449,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>140</v>
       </c>
@@ -2471,7 +2478,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
@@ -2500,7 +2507,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2529,7 +2536,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
@@ -2558,7 +2565,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -2587,7 +2594,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -2616,7 +2623,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
@@ -2645,7 +2652,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2674,7 +2681,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -2703,7 +2710,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -2732,7 +2739,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>165</v>
       </c>
@@ -2761,7 +2768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>194</v>
       </c>
@@ -2790,7 +2797,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>191</v>
       </c>
@@ -2819,7 +2826,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>166</v>
       </c>
@@ -2848,7 +2855,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>172</v>
       </c>
@@ -2877,7 +2884,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
@@ -2906,7 +2913,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>176</v>
       </c>
@@ -2935,7 +2942,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>177</v>
       </c>
@@ -2964,7 +2971,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>187</v>
       </c>
@@ -2993,7 +3000,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>198</v>
       </c>
@@ -3022,7 +3029,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>196</v>
       </c>
@@ -3051,7 +3058,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>197</v>
       </c>
@@ -3080,7 +3087,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>199</v>
       </c>
@@ -3109,7 +3116,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>200</v>
       </c>
@@ -3138,7 +3145,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>201</v>
       </c>
@@ -3165,575 +3172,38 @@
       </c>
       <c r="I55" s="1" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5162B147-5DB6-C042-B721-9C24CCD7FAD0}">
-  <dimension ref="A1:I19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="228">
   <si>
     <t>product</t>
   </si>
@@ -702,6 +702,15 @@
   </si>
   <si>
     <t>Kiln System</t>
+  </si>
+  <si>
+    <t>CLC CO2 Capture</t>
+  </si>
+  <si>
+    <t>CLC Capture</t>
+  </si>
+  <si>
+    <t>simple_CLC-capture</t>
   </si>
 </sst>
 </file>
@@ -1551,13 +1560,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3203,6 +3212,35 @@
         <v>224</v>
       </c>
     </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="227">
   <si>
     <t>product</t>
   </si>
@@ -663,9 +663,6 @@
   </si>
   <si>
     <t>hot clinker</t>
-  </si>
-  <si>
-    <t>cool clinker</t>
   </si>
   <si>
     <t>data/cement/cement_var.xlsx</t>
@@ -1566,7 +1563,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2504,13 +2501,13 @@
         <v>56</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>156</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>156</v>
@@ -2649,13 +2646,13 @@
         <v>56</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>161</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>161</v>
@@ -2678,13 +2675,13 @@
         <v>56</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>162</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>162</v>
@@ -2736,13 +2733,13 @@
         <v>56</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>170</v>
@@ -2765,13 +2762,13 @@
         <v>84</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>36</v>
@@ -2794,13 +2791,13 @@
         <v>84</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>190</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>190</v>
@@ -2823,13 +2820,13 @@
         <v>56</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>193</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>193</v>
@@ -2852,13 +2849,13 @@
         <v>56</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>168</v>
@@ -2939,13 +2936,13 @@
         <v>56</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>186</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>186</v>
@@ -2997,13 +2994,13 @@
         <v>56</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>188</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>188</v>
@@ -3026,16 +3023,16 @@
         <v>56</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3049,22 +3046,22 @@
         <v>203</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="I51" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3084,13 +3081,13 @@
         <v>56</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>204</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>204</v>
@@ -3113,13 +3110,13 @@
         <v>56</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>205</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>205</v>
@@ -3136,22 +3133,22 @@
         <v>206</v>
       </c>
       <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="I54" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3171,27 +3168,27 @@
         <v>56</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="I55" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>211</v>
@@ -3200,27 +3197,27 @@
         <v>56</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B57" t="s">
         <v>127</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>12</v>
@@ -3229,16 +3226,16 @@
         <v>84</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="I57" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F34455-7098-EE4E-93D0-B77658320324}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="465" windowWidth="25200" windowHeight="17265"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="229">
   <si>
     <t>product</t>
   </si>
@@ -708,12 +701,18 @@
   </si>
   <si>
     <t>simple_CLC-capture</t>
+  </si>
+  <si>
+    <t>cement_use</t>
+  </si>
+  <si>
+    <t>Cement Use</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1556,24 +1555,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomRight" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1605,7 +1604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1635,7 +1634,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1665,7 +1664,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1695,7 +1694,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1725,7 +1724,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1755,7 +1754,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1785,7 +1784,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1817,7 +1816,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -1846,7 +1845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -1875,7 +1874,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1991,7 +1990,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
@@ -2078,7 +2077,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -2136,7 +2135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -2165,7 +2164,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -2194,7 +2193,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -2223,7 +2222,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -2281,7 +2280,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -2310,7 +2309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
@@ -2397,7 +2396,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -2426,7 +2425,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>130</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>140</v>
       </c>
@@ -2484,7 +2483,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2542,7 +2541,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
@@ -2571,7 +2570,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
@@ -2658,7 +2657,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2687,7 +2686,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>165</v>
       </c>
@@ -2774,7 +2773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>194</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>191</v>
       </c>
@@ -2832,7 +2831,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>166</v>
       </c>
@@ -2861,7 +2860,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>172</v>
       </c>
@@ -2890,7 +2889,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
@@ -2919,7 +2918,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>176</v>
       </c>
@@ -2948,7 +2947,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>177</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>187</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>198</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>196</v>
       </c>
@@ -3064,7 +3063,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>197</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>199</v>
       </c>
@@ -3122,7 +3121,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>200</v>
       </c>
@@ -3151,7 +3150,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>201</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>221</v>
       </c>
@@ -3209,32 +3208,61 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>225</v>
       </c>
     </row>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F34455-7098-EE4E-93D0-B77658320324}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="465" windowWidth="25200" windowHeight="17265"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="240">
   <si>
     <t>product</t>
   </si>
@@ -707,12 +706,45 @@
   </si>
   <si>
     <t>Cement Use</t>
+  </si>
+  <si>
+    <t>paper_chipping</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>Wood Handling</t>
+  </si>
+  <si>
+    <t>chips</t>
+  </si>
+  <si>
+    <t>data/paper/paper_var.xlsx</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>data/paper/paper_calc.xlsx</t>
+  </si>
+  <si>
+    <t>paper_pulping</t>
+  </si>
+  <si>
+    <t>Pulp Preparation</t>
+  </si>
+  <si>
+    <t>unbleached pulp</t>
+  </si>
+  <si>
+    <t>Pulp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1555,24 +1587,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L55" sqref="L55"/>
+      <selection pane="bottomRight" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1634,7 +1666,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1664,7 +1696,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1694,7 +1726,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1724,7 +1756,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1754,7 +1786,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1784,7 +1816,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1816,7 +1848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -1845,7 +1877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -1874,7 +1906,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -1903,7 +1935,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -1932,7 +1964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1961,7 +1993,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1990,7 +2022,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -2019,7 +2051,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -2048,7 +2080,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
@@ -2077,7 +2109,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
@@ -2106,7 +2138,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -2135,7 +2167,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -2164,7 +2196,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -2193,7 +2225,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -2222,7 +2254,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -2251,7 +2283,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -2280,7 +2312,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -2309,7 +2341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -2338,7 +2370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -2367,7 +2399,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
@@ -2396,7 +2428,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -2425,7 +2457,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>130</v>
       </c>
@@ -2454,7 +2486,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>140</v>
       </c>
@@ -2483,7 +2515,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
@@ -2512,7 +2544,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2541,7 +2573,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
@@ -2570,7 +2602,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -2599,7 +2631,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -2628,7 +2660,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
@@ -2657,7 +2689,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2686,7 +2718,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -2715,7 +2747,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -2744,7 +2776,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>165</v>
       </c>
@@ -2773,7 +2805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>194</v>
       </c>
@@ -2802,7 +2834,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>191</v>
       </c>
@@ -2831,7 +2863,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>166</v>
       </c>
@@ -2860,7 +2892,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>172</v>
       </c>
@@ -2889,7 +2921,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
@@ -2918,7 +2950,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>176</v>
       </c>
@@ -2947,7 +2979,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>177</v>
       </c>
@@ -2976,7 +3008,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>187</v>
       </c>
@@ -3005,7 +3037,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>198</v>
       </c>
@@ -3034,7 +3066,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>196</v>
       </c>
@@ -3063,7 +3095,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>197</v>
       </c>
@@ -3092,7 +3124,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>199</v>
       </c>
@@ -3121,7 +3153,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>200</v>
       </c>
@@ -3150,7 +3182,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>201</v>
       </c>
@@ -3179,7 +3211,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>221</v>
       </c>
@@ -3208,7 +3240,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>227</v>
       </c>
@@ -3237,7 +3269,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>226</v>
       </c>
@@ -3264,6 +3296,64 @@
       </c>
       <c r="I58" s="1" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" t="s">
+        <v>230</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB760F2E-ABB7-0D43-91B4-C65749D97C2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="465" windowWidth="25200" windowHeight="17265"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="244">
   <si>
     <t>product</t>
   </si>
@@ -739,12 +740,24 @@
   </si>
   <si>
     <t>Pulp</t>
+  </si>
+  <si>
+    <t>paper_bleaching</t>
+  </si>
+  <si>
+    <t>Pulp Bleaching</t>
+  </si>
+  <si>
+    <t>bleached pulp</t>
+  </si>
+  <si>
+    <t>Bleach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1587,24 +1600,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F62" sqref="F62"/>
+      <selection pane="bottomRight" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1636,7 +1649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1666,7 +1679,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1696,7 +1709,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1726,7 +1739,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1756,7 +1769,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1786,7 +1799,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1816,7 +1829,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1848,7 +1861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -1877,7 +1890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -1906,7 +1919,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -1935,7 +1948,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -1964,7 +1977,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1993,7 +2006,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -2022,7 +2035,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -2051,7 +2064,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -2080,7 +2093,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>105</v>
       </c>
@@ -2109,7 +2122,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
@@ -2138,7 +2151,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -2167,7 +2180,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -2196,7 +2209,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -2225,7 +2238,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -2254,7 +2267,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
@@ -2283,7 +2296,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -2312,7 +2325,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -2341,7 +2354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -2370,7 +2383,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -2399,7 +2412,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
@@ -2428,7 +2441,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -2457,7 +2470,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>130</v>
       </c>
@@ -2486,7 +2499,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>140</v>
       </c>
@@ -2515,7 +2528,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
@@ -2544,7 +2557,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2573,7 +2586,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
@@ -2602,7 +2615,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -2631,7 +2644,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -2660,7 +2673,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
@@ -2689,7 +2702,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2718,7 +2731,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -2747,7 +2760,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -2776,7 +2789,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>165</v>
       </c>
@@ -2805,7 +2818,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>194</v>
       </c>
@@ -2834,7 +2847,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>191</v>
       </c>
@@ -2863,7 +2876,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>166</v>
       </c>
@@ -2892,7 +2905,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>172</v>
       </c>
@@ -2921,7 +2934,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
@@ -2950,7 +2963,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>176</v>
       </c>
@@ -2979,7 +2992,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>177</v>
       </c>
@@ -3008,7 +3021,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>187</v>
       </c>
@@ -3037,7 +3050,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>198</v>
       </c>
@@ -3066,7 +3079,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>196</v>
       </c>
@@ -3095,7 +3108,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>197</v>
       </c>
@@ -3124,7 +3137,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>199</v>
       </c>
@@ -3153,7 +3166,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>200</v>
       </c>
@@ -3182,7 +3195,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>201</v>
       </c>
@@ -3211,7 +3224,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>221</v>
       </c>
@@ -3240,7 +3253,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>227</v>
       </c>
@@ -3269,7 +3282,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>226</v>
       </c>
@@ -3298,7 +3311,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>229</v>
       </c>
@@ -3327,7 +3340,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>236</v>
       </c>
@@ -3354,6 +3367,35 @@
       </c>
       <c r="I60" s="1" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB760F2E-ABB7-0D43-91B4-C65749D97C2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F02B80-B549-CE4C-8FB1-E4EE80B203DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="256">
   <si>
     <t>product</t>
   </si>
@@ -748,10 +756,46 @@
     <t>Pulp Bleaching</t>
   </si>
   <si>
-    <t>bleached pulp</t>
-  </si>
-  <si>
     <t>Bleach</t>
+  </si>
+  <si>
+    <t>market pulp (bleached)</t>
+  </si>
+  <si>
+    <t>paper_multifuel</t>
+  </si>
+  <si>
+    <t>Multifuel Boiler</t>
+  </si>
+  <si>
+    <t>primary fuel</t>
+  </si>
+  <si>
+    <t>Multifuel</t>
+  </si>
+  <si>
+    <t>paper_blackliquor</t>
+  </si>
+  <si>
+    <t>Black Liquor Recovery Boiler</t>
+  </si>
+  <si>
+    <t>weak black liquor</t>
+  </si>
+  <si>
+    <t>Liquor</t>
+  </si>
+  <si>
+    <t>paper_caustic</t>
+  </si>
+  <si>
+    <t>Lime Kiln and Recausticising Plant</t>
+  </si>
+  <si>
+    <t>white liquor</t>
+  </si>
+  <si>
+    <t>Caustic</t>
   </si>
 </sst>
 </file>
@@ -1601,13 +1645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3380,7 +3424,7 @@
         <v>241</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>56</v>
@@ -3389,13 +3433,100 @@
         <v>233</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>235</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F02B80-B549-CE4C-8FB1-E4EE80B203DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="465" windowWidth="25200" windowHeight="17265"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="222">
   <si>
     <t>product</t>
   </si>
@@ -231,9 +230,6 @@
     <t>raw liquid steel</t>
   </si>
   <si>
-    <t>aux_lime kiln</t>
-  </si>
-  <si>
     <t>Lime Kiln</t>
   </si>
   <si>
@@ -246,9 +242,6 @@
     <t>O2</t>
   </si>
   <si>
-    <t>aux_air separation</t>
-  </si>
-  <si>
     <t>IEAGHGsteel_coke_oven</t>
   </si>
   <si>
@@ -267,21 +260,6 @@
     <t>IEAGHGsteel_forming</t>
   </si>
   <si>
-    <t>Power Plant</t>
-  </si>
-  <si>
-    <t>heat_collector</t>
-  </si>
-  <si>
-    <t>heat recovery</t>
-  </si>
-  <si>
-    <t>Heat Recovery</t>
-  </si>
-  <si>
-    <t>recovered heat</t>
-  </si>
-  <si>
     <t>inflow</t>
   </si>
   <si>
@@ -333,75 +311,15 @@
     <t>Steel Mill (EAF)</t>
   </si>
   <si>
-    <t>data/shared/aux_calc.xlsx</t>
-  </si>
-  <si>
-    <t>data/shared/aux_var.xlsx</t>
-  </si>
-  <si>
-    <t>data/shared/energy_var.xlsx</t>
-  </si>
-  <si>
-    <t>data/shared/energy_calc.xlsx</t>
-  </si>
-  <si>
-    <t>bb_electricity</t>
-  </si>
-  <si>
-    <t>bb_heat</t>
-  </si>
-  <si>
-    <t>Heat Plant</t>
-  </si>
-  <si>
     <t>heat</t>
   </si>
   <si>
-    <t>bb electricity</t>
-  </si>
-  <si>
-    <t>bb heat</t>
-  </si>
-  <si>
-    <t>CO2_compression</t>
-  </si>
-  <si>
-    <t>CO2_capture</t>
-  </si>
-  <si>
-    <t>CO2_capture-compression</t>
-  </si>
-  <si>
-    <t>CO2 Capture &amp; Compression</t>
-  </si>
-  <si>
-    <t>data/shared/CCS_var.xlsx</t>
-  </si>
-  <si>
-    <t>CO2 Cap-Compress</t>
-  </si>
-  <si>
-    <t>data/shared/CCS_calc.xlsx</t>
-  </si>
-  <si>
-    <t>bb_fuel_upstream</t>
-  </si>
-  <si>
     <t>Fuel Upstream</t>
   </si>
   <si>
-    <t>Biofuel Upstream</t>
-  </si>
-  <si>
-    <t>biofuel</t>
-  </si>
-  <si>
     <t>fuel</t>
   </si>
   <si>
-    <t>bb fuel upstream</t>
-  </si>
-  <si>
     <t>meta-category</t>
   </si>
   <si>
@@ -414,42 +332,6 @@
     <t>CCS</t>
   </si>
   <si>
-    <t>mineral</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>bb_CO2_storage</t>
-  </si>
-  <si>
-    <t>CO2 storage</t>
-  </si>
-  <si>
-    <t>bb_biofuel_upstream</t>
-  </si>
-  <si>
-    <t>bb biofuel upstream</t>
-  </si>
-  <si>
-    <t>bb CO2 storage</t>
-  </si>
-  <si>
-    <t>CO2__captured</t>
-  </si>
-  <si>
-    <t>CO2__stored</t>
-  </si>
-  <si>
-    <t>heat_flare</t>
-  </si>
-  <si>
-    <t>heat flare</t>
-  </si>
-  <si>
-    <t>Heat Flare</t>
-  </si>
-  <si>
     <t>simple_coke</t>
   </si>
   <si>
@@ -796,13 +678,28 @@
   </si>
   <si>
     <t>Caustic</t>
+  </si>
+  <si>
+    <t>shared</t>
+  </si>
+  <si>
+    <t>simple_WWT</t>
+  </si>
+  <si>
+    <t>Waste Water Treatment</t>
+  </si>
+  <si>
+    <t>effluent</t>
+  </si>
+  <si>
+    <t>WWT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -938,6 +835,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1286,10 +1191,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1644,29 +1552,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
+      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>47</v>
@@ -1693,12 +1601,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1723,12 +1631,12 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -1753,12 +1661,12 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1783,12 +1691,12 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>36</v>
@@ -1813,12 +1721,12 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>37</v>
@@ -1843,12 +1751,12 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>38</v>
@@ -1873,12 +1781,12 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -1905,12 +1813,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>48</v>
@@ -1922,24 +1830,24 @@
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>51</v>
@@ -1951,24 +1859,24 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>54</v>
@@ -1980,24 +1888,24 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>58</v>
@@ -2009,24 +1917,24 @@
         <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
         <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>59</v>
@@ -2038,24 +1946,24 @@
         <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
         <v>64</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>60</v>
@@ -2067,1469 +1975,1151 @@
         <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="G17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" t="s">
-        <v>82</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="I19" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="I36" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C46" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="E46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="B53" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="D53" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="G53" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="I53" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B59" t="s">
-        <v>230</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B60" t="s">
-        <v>230</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D60" t="s">
-        <v>238</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B61" t="s">
-        <v>230</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B62" t="s">
-        <v>230</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B63" t="s">
-        <v>230</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B64" t="s">
-        <v>230</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA564A63-5883-4E42-A5B7-891D7F5BF216}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="465" windowWidth="25200" windowHeight="17265"/>
+    <workbookView xWindow="6840" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -674,9 +667,6 @@
     <t>Lime Kiln and Recausticising Plant</t>
   </si>
   <si>
-    <t>white liquor</t>
-  </si>
-  <si>
     <t>Caustic</t>
   </si>
   <si>
@@ -693,12 +683,15 @@
   </si>
   <si>
     <t>WWT</t>
+  </si>
+  <si>
+    <t>smelt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1552,24 +1545,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1601,7 +1594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1631,7 +1624,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1661,7 +1654,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1691,7 +1684,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1721,7 +1714,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1751,7 +1744,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1781,7 +1774,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1813,7 +1806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -1842,7 +1835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -1871,7 +1864,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -1900,7 +1893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -1929,7 +1922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
@@ -1958,7 +1951,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>76</v>
       </c>
@@ -1987,7 +1980,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
@@ -2016,7 +2009,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -2045,7 +2038,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
@@ -2074,7 +2067,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>86</v>
       </c>
@@ -2103,7 +2096,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>101</v>
       </c>
@@ -2132,12 +2125,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>67</v>
@@ -2161,7 +2154,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>106</v>
       </c>
@@ -2190,7 +2183,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>107</v>
       </c>
@@ -2219,7 +2212,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>108</v>
       </c>
@@ -2248,7 +2241,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
@@ -2277,7 +2270,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>110</v>
       </c>
@@ -2306,7 +2299,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>111</v>
       </c>
@@ -2335,7 +2328,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>112</v>
       </c>
@@ -2364,7 +2357,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>130</v>
       </c>
@@ -2393,7 +2386,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>126</v>
       </c>
@@ -2422,7 +2415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>155</v>
       </c>
@@ -2451,7 +2444,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>152</v>
       </c>
@@ -2480,7 +2473,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>127</v>
       </c>
@@ -2509,7 +2502,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>133</v>
       </c>
@@ -2538,7 +2531,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>136</v>
       </c>
@@ -2567,7 +2560,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>137</v>
       </c>
@@ -2596,7 +2589,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>138</v>
       </c>
@@ -2625,7 +2618,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>148</v>
       </c>
@@ -2654,7 +2647,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>159</v>
       </c>
@@ -2683,7 +2676,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>157</v>
       </c>
@@ -2712,7 +2705,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>158</v>
       </c>
@@ -2741,7 +2734,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>160</v>
       </c>
@@ -2770,7 +2763,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>161</v>
       </c>
@@ -2799,7 +2792,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>162</v>
       </c>
@@ -2828,7 +2821,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>182</v>
       </c>
@@ -2857,7 +2850,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>188</v>
       </c>
@@ -2886,7 +2879,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>187</v>
       </c>
@@ -2915,7 +2908,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>190</v>
       </c>
@@ -2944,7 +2937,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>197</v>
       </c>
@@ -2973,7 +2966,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>201</v>
       </c>
@@ -3002,7 +2995,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>205</v>
       </c>
@@ -3031,7 +3024,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>209</v>
       </c>
@@ -3060,7 +3053,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>213</v>
       </c>
@@ -3071,36 +3064,36 @@
         <v>214</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>196</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>77</v>
@@ -3109,13 +3102,13 @@
         <v>179</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>180</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA564A63-5883-4E42-A5B7-891D7F5BF216}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0853F4DA-3FA4-7049-83BD-2A53B01C23E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="226">
   <si>
     <t>product</t>
   </si>
@@ -686,6 +694,18 @@
   </si>
   <si>
     <t>smelt</t>
+  </si>
+  <si>
+    <t>duplicate_power</t>
+  </si>
+  <si>
+    <t>Electricty Generation Aux</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Power Aux</t>
   </si>
 </sst>
 </file>
@@ -1546,13 +1566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2319,7 +2339,7 @@
         <v>179</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>180</v>
@@ -2328,102 +2348,102 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>179</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>180</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>12</v>
@@ -2435,56 +2455,56 @@
         <v>179</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>180</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>179</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>180</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>56</v>
@@ -2493,56 +2513,56 @@
         <v>179</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>180</v>
       </c>
       <c r="I32" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>135</v>
+      <c r="H33" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
         <v>89</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>56</v>
@@ -2551,143 +2571,143 @@
         <v>102</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>104</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="H35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="E36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>56</v>
@@ -2696,27 +2716,27 @@
         <v>173</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>174</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>56</v>
@@ -2725,27 +2745,27 @@
         <v>173</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>174</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>56</v>
@@ -2754,27 +2774,27 @@
         <v>173</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>174</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
+        <v>168</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>56</v>
@@ -2783,27 +2803,27 @@
         <v>173</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>174</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>167</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>56</v>
@@ -2812,27 +2832,27 @@
         <v>173</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>174</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>56</v>
@@ -2841,114 +2861,114 @@
         <v>173</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>174</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>173</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>174</v>
       </c>
       <c r="I45" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="D46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B47" t="s">
-        <v>191</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B48" t="s">
         <v>191</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D48" t="s">
-        <v>199</v>
+        <v>192</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>56</v>
@@ -2957,27 +2977,27 @@
         <v>194</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>196</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B49" t="s">
         <v>191</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
+      </c>
+      <c r="D49" t="s">
+        <v>199</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>56</v>
@@ -2986,56 +3006,56 @@
         <v>194</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>196</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B50" t="s">
         <v>191</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>196</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B51" t="s">
         <v>191</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>77</v>
@@ -3044,27 +3064,27 @@
         <v>194</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>196</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B52" t="s">
         <v>191</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>77</v>
@@ -3073,41 +3093,70 @@
         <v>194</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>196</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="H53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>220</v>
       </c>
     </row>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0853F4DA-3FA4-7049-83BD-2A53B01C23E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF36ACE-1014-A647-8F3A-A111816073C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8980" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="236">
   <si>
     <t>product</t>
   </si>
@@ -706,6 +708,36 @@
   </si>
   <si>
     <t>Power Aux</t>
+  </si>
+  <si>
+    <t>eth_box</t>
+  </si>
+  <si>
+    <t>eth_stoich</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>C2H6O</t>
+  </si>
+  <si>
+    <t>Ethanol (Black Box)</t>
+  </si>
+  <si>
+    <t>Ethanol (Stoichiometric)</t>
+  </si>
+  <si>
+    <t>data/chemicals/chemvar.xlsx</t>
+  </si>
+  <si>
+    <t>eth-stoich</t>
+  </si>
+  <si>
+    <t>eth-box</t>
+  </si>
+  <si>
+    <t>data/chemicals/chemcals.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1566,13 +1598,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3160,6 +3192,64 @@
         <v>220</v>
       </c>
     </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D55" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/unitlibrary.xlsx
+++ b/data/unitlibrary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF36ACE-1014-A647-8F3A-A111816073C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7482D24-5297-9B41-AA41-E53B8519BE9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8980" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="460" windowWidth="25200" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Processes" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="246">
   <si>
     <t>product</t>
   </si>
@@ -738,6 +738,36 @@
   </si>
   <si>
     <t>data/chemicals/chemcals.xlsx</t>
+  </si>
+  <si>
+    <t>NH3_box</t>
+  </si>
+  <si>
+    <t>NH3 (Black Box)</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>NH3-box</t>
+  </si>
+  <si>
+    <t>NH3_stoich</t>
+  </si>
+  <si>
+    <t>NH3_semistoich</t>
+  </si>
+  <si>
+    <t>NH3 (Stoichometric)</t>
+  </si>
+  <si>
+    <t>NH3 (Semi Stoich)</t>
+  </si>
+  <si>
+    <t>NH3-semistoich</t>
+  </si>
+  <si>
+    <t>NH3-stoich</t>
   </si>
 </sst>
 </file>
@@ -1598,13 +1628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3250,6 +3280,93 @@
         <v>233</v>
       </c>
     </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B57" t="s">
+        <v>228</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" t="s">
+        <v>238</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
